--- a/Data/VisaConfig.xlsx
+++ b/Data/VisaConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmpa11194\Documents\UiPath\MDB CHARGE BACK\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C547F74-E331-4567-8A06-B0CEBAF017FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8FF085-290D-4479-B239-906544E7D59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{533A41B4-224A-4779-A5C7-3E4B46218A92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{533A41B4-224A-4779-A5C7-3E4B46218A92}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -122,12 +122,6 @@
     <t>Work Log</t>
   </si>
   <si>
-    <t>RobotCvServerUrl</t>
-  </si>
-  <si>
-    <t>Usually 'https://cv.uipath.com'</t>
-  </si>
-  <si>
     <t>The full directory path to the External config folder used by the Bot</t>
   </si>
   <si>
@@ -164,9 +158,6 @@
     <t>VISA_DownloadFolderPath</t>
   </si>
   <si>
-    <t>VssExtractorURL</t>
-  </si>
-  <si>
     <t>MDB_WorkLog</t>
   </si>
   <si>
@@ -185,10 +176,10 @@
     <t>VISA_MDB_ProcessDataConfigFilePath</t>
   </si>
   <si>
-    <t>ProductionEmailTo</t>
-  </si>
-  <si>
-    <t>ProductionEmailCc</t>
+    <t>DisputeEmailTo</t>
+  </si>
+  <si>
+    <t>DisputeEmailCc</t>
   </si>
 </sst>
 </file>
@@ -575,7 +566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6036370E-F23C-4C8F-95FD-ABF3B0AE06C5}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -606,10 +597,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -624,15 +615,15 @@
         <v>27</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -652,15 +643,15 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>0</v>
@@ -668,7 +659,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>1</v>
@@ -728,9 +719,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79D8F21-4660-448E-8C3A-0D2E91DB482A}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -809,7 +800,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -817,7 +808,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -828,7 +819,7 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -839,7 +830,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -850,7 +841,7 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -861,48 +852,29 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Data/VisaConfig.xlsx
+++ b/Data/VisaConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmpa11194\Documents\UiPath\MDB CHARGE BACK\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8FF085-290D-4479-B239-906544E7D59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83D8763-2B2F-44A7-BF6F-BA42C617FB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{533A41B4-224A-4779-A5C7-3E4B46218A92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{533A41B4-224A-4779-A5C7-3E4B46218A92}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6036370E-F23C-4C8F-95FD-ABF3B0AE06C5}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,7 +721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79D8F21-4660-448E-8C3A-0D2E91DB482A}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
